--- a/docs/excel/TTurntableNew.xlsx
+++ b/docs/excel/TTurntableNew.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>string</t>
   </si>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>0;1;2;3;4;5;6;1;2;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;1;2;3;4;5;6;7;8;9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +508,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -574,10 +570,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TTurntableNew.xlsx
+++ b/docs/excel/TTurntableNew.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>string</t>
   </si>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>0;1;2;3;4;5;6;1;2;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0;1;2;3;4;5;6;7;8;9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +512,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -570,10 +574,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
